--- a/biology/Zoologie/Iwogumoa/Iwogumoa.xlsx
+++ b/biology/Zoologie/Iwogumoa/Iwogumoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iwogumoa est un genre d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iwogumoa est un genre d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie de l'Est et en Russie adjacente[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie de l'Est et en Russie adjacente.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 19.0, 02/02/2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 19.0, 02/02/2018) :
 Iwogumoa acco (Nishikawa, 1987)
 Iwogumoa dalianensis Zhang, Zhu &amp; Wang, 2017
 Iwogumoa dicranata (Wang, Yin, Peng &amp; Xie, 1990)
@@ -592,7 +608,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kishida, 1955 : A synopsis of spider family Agelenidae. Acta Arachnologica, Tokyo, vol. 14, p. 1-13 (texte intégral).</t>
         </is>
